--- a/data/modeloutput/scientific_correlation_table.xlsx
+++ b/data/modeloutput/scientific_correlation_table.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27**</t>
+          <t>0.29**</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.25**</t>
+          <t>0.26**</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -732,27 +732,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.19*</t>
+          <t>0.23*</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">

--- a/data/modeloutput/scientific_correlation_table.xlsx
+++ b/data/modeloutput/scientific_correlation_table.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29**</t>
+          <t>0.30***</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.26**</t>
+          <t>0.34***</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -592,27 +592,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.22*</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.26**</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -633,32 +633,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.24**</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.22**</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.19*</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20*</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.32***</t>
+          <t>0.28***</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,47 +722,47 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7. Log (min=1) Number of Data Breaches</t>
+          <t>7. Square Root Number of Data Breaches</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.23*</t>
+          <t>0.33***</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.26**</t>
+          <t>0.33***</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -780,47 +780,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.20*</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
